--- a/apples2apples/price_comparison_by_type.xlsx
+++ b/apples2apples/price_comparison_by_type.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Price Comparison by Type" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Comparison by Type" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -693,21 +693,18 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pure Life Water</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1.5</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Poland Spring Water</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
@@ -715,12 +712,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>KeyFoods ($1.50)</t>
+          <t>ShopRite ($4.00)</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>$4.09 (73.2%)</t>
+          <t>$1.59 (28.4%)</t>
         </is>
       </c>
     </row>
@@ -735,7 +732,7 @@
           <t>yellow bananas</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>1.78</v>
       </c>
       <c r="D6" t="inlineStr">
@@ -748,14 +745,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>US #1 Yellow Onions</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1.5</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -767,12 +761,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>KeyFoods ($1.50)</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>$0.28 (15.7%)</t>
+          <t>Groupr ($1.78)</t>
         </is>
       </c>
     </row>
@@ -803,7 +792,7 @@
           <t>Carolina Long Grain Rice</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="1" t="n">
         <v>8.99</v>
       </c>
       <c r="I7" t="n">
@@ -811,23 +800,20 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>General Mills Cereal</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="L7" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ShopRite ($1.99)</t>
+          <t>KeyFoods ($8.99)</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>$8.30 (80.7%)</t>
+          <t>$1.30 (12.6%)</t>
         </is>
       </c>
     </row>
@@ -842,7 +828,7 @@
           <t>all marinara pasta sauce</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>6.99</v>
       </c>
       <c r="D8" t="inlineStr">
@@ -855,14 +841,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Barilla Pasta Sauce</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>1.5</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -874,12 +857,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>KeyFoods ($1.50)</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>$5.49 (78.5%)</t>
+          <t>Groupr ($6.99)</t>
         </is>
       </c>
     </row>
@@ -899,14 +877,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kirkwood Seasoned Turkey Burgers</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>6.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -993,7 +968,7 @@
           <t>green grapes</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
         <v>4.99</v>
       </c>
       <c r="D11" t="inlineStr">
@@ -1014,23 +989,15 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Green Beans</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>1.49</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="L11" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ShopRite ($1.49)</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>$3.50 (70.1%)</t>
+          <t>Groupr ($4.99)</t>
         </is>
       </c>
     </row>
@@ -1105,25 +1072,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Urban Meadow Beef Franks</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I13" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Oscar Mayer Beef Franks</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>2.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="L13" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1147,25 +1108,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Reggano Pasta Salad</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2.49</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Barilla Pasta Sauce</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1.5</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1348,14 +1303,11 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Coke Cans</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>20.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="L18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1618,14 +1570,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carolina Long Grain Rice</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I24" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1751,50 +1700,36 @@
           <t>cheese block</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="1" t="n">
         <v>7.29</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Utz Cheese Balls</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6.98</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Borden Sliced Cheese</t>
-        </is>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>3</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I27" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Black Bear American Cheese</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>5.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="L27" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>KeyFoods ($3.00)</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>$4.29 (58.8%)</t>
+          <t>Groupr ($7.29)</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1744,7 @@
           <t>chocolate sandwich cookies family size</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="1" t="n">
         <v>5.29</v>
       </c>
       <c r="D28" t="inlineStr">
@@ -1822,34 +1757,23 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hot Pockets Sandwiches</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I28" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Nabisco Oreo Cookies Family Size</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>3</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="L28" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>ShopRite ($3.00)</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>$2.29 (43.3%)</t>
+          <t>Groupr ($5.29)</t>
         </is>
       </c>
     </row>
@@ -1916,19 +1840,16 @@
           <t>potato bread</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="1" t="n">
         <v>4.59</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Clancy's Barbecue Potato Chips</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>1.59</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="F30" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1948,12 +1869,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Aldi ($1.59)</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>$3.00 (65.4%)</t>
+          <t>Groupr ($4.59)</t>
         </is>
       </c>
     </row>
@@ -1981,14 +1897,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carolina Long Grain Rice</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I31" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2311,14 +2224,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Carolina Long Grain Rice</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I38" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2397,30 +2307,24 @@
           <t>white bread</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="1" t="n">
         <v>3.49</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fresh Antibiotic Free Family Pack Thin Sliced Chicken Breasts</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>2.99</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="F40" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Boneless Chicken Breast</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4.59</v>
+          <t>Not Found</t>
+        </is>
       </c>
       <c r="I40" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2432,12 +2336,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Aldi ($2.99)</t>
-        </is>
-      </c>
-      <c r="N40" s="2" t="inlineStr">
-        <is>
-          <t>$0.50 (14.3%)</t>
+          <t>Groupr ($3.49)</t>
         </is>
       </c>
     </row>
